--- a/data/pca/factorExposure/factorExposure_2012-10-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-01.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001518849495982723</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001917395471109196</v>
+      </c>
+      <c r="C2">
+        <v>0.02817285272756249</v>
+      </c>
+      <c r="D2">
+        <v>0.00562712356741172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.000453183585068047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006960720511428048</v>
+      </c>
+      <c r="C4">
+        <v>0.08270121333757717</v>
+      </c>
+      <c r="D4">
+        <v>0.07156089185386552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001963586434066634</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01424893990665429</v>
+      </c>
+      <c r="C6">
+        <v>0.1140429805175001</v>
+      </c>
+      <c r="D6">
+        <v>0.02517661010529659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.0006254090406781162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005019683619007375</v>
+      </c>
+      <c r="C7">
+        <v>0.05782309118493595</v>
+      </c>
+      <c r="D7">
+        <v>0.03436619517990726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0006153308384254864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005939496092418656</v>
+      </c>
+      <c r="C8">
+        <v>0.03537490771678662</v>
+      </c>
+      <c r="D8">
+        <v>0.04018188862170056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002713644570434502</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005132906829157496</v>
+      </c>
+      <c r="C9">
+        <v>0.07015888591532303</v>
+      </c>
+      <c r="D9">
+        <v>0.07687080547343833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001317142873973649</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005270911425250985</v>
+      </c>
+      <c r="C10">
+        <v>0.05578795358059084</v>
+      </c>
+      <c r="D10">
+        <v>-0.1937770318264914</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003365912822075213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005631312840366333</v>
+      </c>
+      <c r="C11">
+        <v>0.07883098790180111</v>
+      </c>
+      <c r="D11">
+        <v>0.0662899012084021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001814602330788528</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004172045882528134</v>
+      </c>
+      <c r="C12">
+        <v>0.06432699128187025</v>
+      </c>
+      <c r="D12">
+        <v>0.05254892080052265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002591164900293721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008230784678162024</v>
+      </c>
+      <c r="C13">
+        <v>0.06682538586570533</v>
+      </c>
+      <c r="D13">
+        <v>0.0627568775253208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002324429464508679</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0006932713715084121</v>
+      </c>
+      <c r="C14">
+        <v>0.04224015454687646</v>
+      </c>
+      <c r="D14">
+        <v>0.0127269299992594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0003038191449084998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005888964400846291</v>
+      </c>
+      <c r="C15">
+        <v>0.04009299266839438</v>
+      </c>
+      <c r="D15">
+        <v>0.03020290136256339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008960763325239059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.00500244034187584</v>
+      </c>
+      <c r="C16">
+        <v>0.0637428760328651</v>
+      </c>
+      <c r="D16">
+        <v>0.05884437128386627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0004441931020970535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008826479947513377</v>
+      </c>
+      <c r="C20">
+        <v>0.0629151141841101</v>
+      </c>
+      <c r="D20">
+        <v>0.05221948863821944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005861898308820124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009178461070148306</v>
+      </c>
+      <c r="C21">
+        <v>0.01961522279131298</v>
+      </c>
+      <c r="D21">
+        <v>0.04278036505990981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02370510245224045</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007221912759958067</v>
+      </c>
+      <c r="C22">
+        <v>0.08609958983153053</v>
+      </c>
+      <c r="D22">
+        <v>0.1254715986403269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02349723091321862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007028533377292175</v>
+      </c>
+      <c r="C23">
+        <v>0.08659860028087567</v>
+      </c>
+      <c r="D23">
+        <v>0.1265372610817811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002738510547277268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005548539300470905</v>
+      </c>
+      <c r="C24">
+        <v>0.07550161161586236</v>
+      </c>
+      <c r="D24">
+        <v>0.0691746191570614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004554248043539279</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003126501246386623</v>
+      </c>
+      <c r="C25">
+        <v>0.07740219038598524</v>
+      </c>
+      <c r="D25">
+        <v>0.06792098157200807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003729125948788248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003623445719231027</v>
+      </c>
+      <c r="C26">
+        <v>0.03846823106467607</v>
+      </c>
+      <c r="D26">
+        <v>0.02527338792882194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007949652859123992</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001487140441800674</v>
+      </c>
+      <c r="C28">
+        <v>0.1049689786812655</v>
+      </c>
+      <c r="D28">
+        <v>-0.3229172398289277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001368711630501162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002626354466982502</v>
+      </c>
+      <c r="C29">
+        <v>0.0485620554942584</v>
+      </c>
+      <c r="D29">
+        <v>0.01115878262388722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.006116994774353527</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009606125244364785</v>
+      </c>
+      <c r="C30">
+        <v>0.1407822258668915</v>
+      </c>
+      <c r="D30">
+        <v>0.1103888982937526</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001280143430872302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006280347563897973</v>
+      </c>
+      <c r="C31">
+        <v>0.04288088522142066</v>
+      </c>
+      <c r="D31">
+        <v>0.0338141766553197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.002036438653370992</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003596161953334702</v>
+      </c>
+      <c r="C32">
+        <v>0.03973019729512892</v>
+      </c>
+      <c r="D32">
+        <v>0.02412508109828556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001658684328236664</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009119434558203788</v>
+      </c>
+      <c r="C33">
+        <v>0.08805361777939677</v>
+      </c>
+      <c r="D33">
+        <v>0.06678704549758763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.003666988859893829</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.00419616697938445</v>
+      </c>
+      <c r="C34">
+        <v>0.0574262802608007</v>
+      </c>
+      <c r="D34">
+        <v>0.05899164163271969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0006431886300310994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005266891808476314</v>
+      </c>
+      <c r="C35">
+        <v>0.04011042452417183</v>
+      </c>
+      <c r="D35">
+        <v>0.02171788248454841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005573204045002954</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001566349938012851</v>
+      </c>
+      <c r="C36">
+        <v>0.02385355734285271</v>
+      </c>
+      <c r="D36">
+        <v>0.02758767782171999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-2.907344820317557e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009325193143520977</v>
+      </c>
+      <c r="C38">
+        <v>0.03827860089928643</v>
+      </c>
+      <c r="D38">
+        <v>0.01510896291927859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01379493916621451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001431917396455057</v>
+      </c>
+      <c r="C39">
+        <v>0.11299773257164</v>
+      </c>
+      <c r="D39">
+        <v>0.0781281024598805</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008262416214849249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003831766650542197</v>
+      </c>
+      <c r="C40">
+        <v>0.09112994993591321</v>
+      </c>
+      <c r="D40">
+        <v>0.01696627625443916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004301334327378067</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007239967110923266</v>
+      </c>
+      <c r="C41">
+        <v>0.03868101115331208</v>
+      </c>
+      <c r="D41">
+        <v>0.04024873057170009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002900069314959781</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003852227374569516</v>
+      </c>
+      <c r="C43">
+        <v>0.05235406830405939</v>
+      </c>
+      <c r="D43">
+        <v>0.02886188388836456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01398004965589866</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002613496792001973</v>
+      </c>
+      <c r="C44">
+        <v>0.1038949987125605</v>
+      </c>
+      <c r="D44">
+        <v>0.06782240544297301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001036553578223846</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001622884661965123</v>
+      </c>
+      <c r="C46">
+        <v>0.03232409023287036</v>
+      </c>
+      <c r="D46">
+        <v>0.03575157927845417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001712244555879507</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002099073887931734</v>
+      </c>
+      <c r="C47">
+        <v>0.03485278539196082</v>
+      </c>
+      <c r="D47">
+        <v>0.0229518817721948</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.002925049338350132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006530615300156254</v>
+      </c>
+      <c r="C48">
+        <v>0.02972861010813961</v>
+      </c>
+      <c r="D48">
+        <v>0.03769387201255336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.007276553113871336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01765656144647113</v>
+      </c>
+      <c r="C49">
+        <v>0.1901489765872177</v>
+      </c>
+      <c r="D49">
+        <v>0.006621299860121937</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006124836379531331</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.00355960949922584</v>
+      </c>
+      <c r="C50">
+        <v>0.0417355009045342</v>
+      </c>
+      <c r="D50">
+        <v>0.04080024275220308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>5.924420325374957e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.005039066388477125</v>
+      </c>
+      <c r="C51">
+        <v>0.02627045894021573</v>
+      </c>
+      <c r="D51">
+        <v>0.02179913516907906</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001980916954178025</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02127152853405412</v>
+      </c>
+      <c r="C53">
+        <v>0.1710291092695195</v>
+      </c>
+      <c r="D53">
+        <v>0.02218067320375864</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001921951840579984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009151543530392936</v>
+      </c>
+      <c r="C54">
+        <v>0.05435681353636171</v>
+      </c>
+      <c r="D54">
+        <v>0.04455814262732519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003549226531247454</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009544066534001316</v>
+      </c>
+      <c r="C55">
+        <v>0.1076655551805482</v>
+      </c>
+      <c r="D55">
+        <v>0.03955161723923028</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.004198183663813753</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02036396293956509</v>
+      </c>
+      <c r="C56">
+        <v>0.1753461500546438</v>
+      </c>
+      <c r="D56">
+        <v>0.01485080192498151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.003564129189601339</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01890804421331383</v>
+      </c>
+      <c r="C58">
+        <v>0.1037510962456361</v>
+      </c>
+      <c r="D58">
+        <v>0.07300485790385601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007731368267100515</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01039540128125232</v>
+      </c>
+      <c r="C59">
+        <v>0.1697339224324964</v>
+      </c>
+      <c r="D59">
+        <v>-0.341052384417728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.002257490027987539</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02509313676210901</v>
+      </c>
+      <c r="C60">
+        <v>0.2262845864751988</v>
+      </c>
+      <c r="D60">
+        <v>0.01783433676637979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01244878536796304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001820747164671008</v>
+      </c>
+      <c r="C61">
+        <v>0.09411467834271163</v>
+      </c>
+      <c r="D61">
+        <v>0.05851350505629169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1547690174385426</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1495016813370843</v>
+      </c>
+      <c r="C62">
+        <v>0.09727745920167048</v>
+      </c>
+      <c r="D62">
+        <v>0.02350100193281743</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001302948647409325</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006390821548695806</v>
+      </c>
+      <c r="C63">
+        <v>0.05263172214279015</v>
+      </c>
+      <c r="D63">
+        <v>0.0353158027607909</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002031630573135583</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01573096932872882</v>
+      </c>
+      <c r="C64">
+        <v>0.1045823663115176</v>
+      </c>
+      <c r="D64">
+        <v>0.05712034062735311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002383983945784282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01757927632719339</v>
+      </c>
+      <c r="C65">
+        <v>0.1206700977252019</v>
+      </c>
+      <c r="D65">
+        <v>0.02954760515976154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.004448905893226891</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01331758207425964</v>
+      </c>
+      <c r="C66">
+        <v>0.1611458218963637</v>
+      </c>
+      <c r="D66">
+        <v>0.1098102891324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002402785308744516</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01561249144210283</v>
+      </c>
+      <c r="C67">
+        <v>0.07065749904251842</v>
+      </c>
+      <c r="D67">
+        <v>0.02571876385351479</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006074945399650517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001135588589769294</v>
+      </c>
+      <c r="C68">
+        <v>0.08719861259075638</v>
+      </c>
+      <c r="D68">
+        <v>-0.25625390399408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001097126215595071</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006517732286375316</v>
+      </c>
+      <c r="C69">
+        <v>0.05249150788566371</v>
+      </c>
+      <c r="D69">
+        <v>0.03814087162099346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0006770314379902425</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002165402764403919</v>
+      </c>
+      <c r="C70">
+        <v>0.006367271024951509</v>
+      </c>
+      <c r="D70">
+        <v>0.001650345878881797</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001508900302184859</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005764029898458321</v>
+      </c>
+      <c r="C71">
+        <v>0.09176493351471966</v>
+      </c>
+      <c r="D71">
+        <v>-0.3002817807343605</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004213742845316341</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01653002913855441</v>
+      </c>
+      <c r="C72">
+        <v>0.1570242452939828</v>
+      </c>
+      <c r="D72">
+        <v>0.01171271759525101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.006618939980038038</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03156327360238595</v>
+      </c>
+      <c r="C73">
+        <v>0.28273162927488</v>
+      </c>
+      <c r="D73">
+        <v>0.05388589679594331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.006157624137541463</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.00196231864381908</v>
+      </c>
+      <c r="C74">
+        <v>0.1016386281044076</v>
+      </c>
+      <c r="D74">
+        <v>0.03636056082059416</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004374392775003481</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01066076623355242</v>
+      </c>
+      <c r="C75">
+        <v>0.1219003407254476</v>
+      </c>
+      <c r="D75">
+        <v>0.02497242241160931</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008580491922518514</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02234643927007186</v>
+      </c>
+      <c r="C76">
+        <v>0.1467175339864511</v>
+      </c>
+      <c r="D76">
+        <v>0.05794739825084114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001258714023016193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02117954213240596</v>
+      </c>
+      <c r="C77">
+        <v>0.112316126074958</v>
+      </c>
+      <c r="D77">
+        <v>0.05275925243083652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001117373106520688</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01480756161129801</v>
+      </c>
+      <c r="C78">
+        <v>0.09604633725969333</v>
+      </c>
+      <c r="D78">
+        <v>0.08228315620371576</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02193040799173916</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03836092676401081</v>
+      </c>
+      <c r="C79">
+        <v>0.1560545080343831</v>
+      </c>
+      <c r="D79">
+        <v>0.03364140267233004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006674282546370094</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01004538628147464</v>
+      </c>
+      <c r="C80">
+        <v>0.03816396663277954</v>
+      </c>
+      <c r="D80">
+        <v>0.02991478698128247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0007859921382664461</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01574483197150359</v>
+      </c>
+      <c r="C81">
+        <v>0.12949176964425</v>
+      </c>
+      <c r="D81">
+        <v>0.03795992981906272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.004405297877650884</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01997212289431434</v>
+      </c>
+      <c r="C82">
+        <v>0.1384480344163462</v>
+      </c>
+      <c r="D82">
+        <v>0.03848870973720139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.004535518902945962</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01156013426571354</v>
+      </c>
+      <c r="C83">
+        <v>0.06276427557293976</v>
+      </c>
+      <c r="D83">
+        <v>0.04466448018818141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01092651816714562</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01228141715572369</v>
+      </c>
+      <c r="C84">
+        <v>0.03773627257267018</v>
+      </c>
+      <c r="D84">
+        <v>-0.001596436674040446</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01381767817840947</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02894251842742574</v>
+      </c>
+      <c r="C85">
+        <v>0.1238926304541058</v>
+      </c>
+      <c r="D85">
+        <v>0.03764658982927545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003536094057557799</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004465170684329922</v>
+      </c>
+      <c r="C86">
+        <v>0.05038388226251488</v>
+      </c>
+      <c r="D86">
+        <v>0.02791434787261595</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.002621517387291849</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.010988163027527</v>
+      </c>
+      <c r="C87">
+        <v>0.1270773167885162</v>
+      </c>
+      <c r="D87">
+        <v>0.0778889609196748</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01099708436501362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002967480603239377</v>
+      </c>
+      <c r="C88">
+        <v>0.06317347745519682</v>
+      </c>
+      <c r="D88">
+        <v>0.0268889506999704</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01233038157041181</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001787540518061866</v>
+      </c>
+      <c r="C89">
+        <v>0.1398409820209428</v>
+      </c>
+      <c r="D89">
+        <v>-0.3169159738541379</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004182509915556276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006724844813799013</v>
+      </c>
+      <c r="C90">
+        <v>0.1207625315074301</v>
+      </c>
+      <c r="D90">
+        <v>-0.3122110235343618</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001044315832887402</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01037912928967508</v>
+      </c>
+      <c r="C91">
+        <v>0.09950384329139278</v>
+      </c>
+      <c r="D91">
+        <v>0.02471448311411542</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.009463667799149358</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0005792627129485972</v>
+      </c>
+      <c r="C92">
+        <v>0.1348262266462313</v>
+      </c>
+      <c r="D92">
+        <v>-0.3230001169979974</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003550173172989903</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004228038986742967</v>
+      </c>
+      <c r="C93">
+        <v>0.105411096802369</v>
+      </c>
+      <c r="D93">
+        <v>-0.2969938351755385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00275222381658933</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02161620736856989</v>
+      </c>
+      <c r="C94">
+        <v>0.142286536579237</v>
+      </c>
+      <c r="D94">
+        <v>0.05451690416708366</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.002164237996495648</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01646298476930725</v>
+      </c>
+      <c r="C95">
+        <v>0.1216981497334439</v>
+      </c>
+      <c r="D95">
+        <v>0.06508200612235641</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.006212507546252299</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.0368377052283359</v>
+      </c>
+      <c r="C97">
+        <v>0.2256473580705093</v>
+      </c>
+      <c r="D97">
+        <v>0.002890734165188799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.002799490211912312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03802219819779205</v>
+      </c>
+      <c r="C98">
+        <v>0.2586635235200359</v>
+      </c>
+      <c r="D98">
+        <v>0.03180272303107397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9860213221694978</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9812822178623849</v>
+      </c>
+      <c r="C99">
+        <v>-0.1197045983376843</v>
+      </c>
+      <c r="D99">
+        <v>-0.02377754266424493</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001296132072174728</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002668616044423513</v>
+      </c>
+      <c r="C101">
+        <v>0.04868865918220092</v>
+      </c>
+      <c r="D101">
+        <v>0.0115426913428405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
